--- a/data/dataframe.xlsx
+++ b/data/dataframe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,16 +488,6 @@
           <t>Talking int</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Ramal</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Função</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -544,12 +534,6 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -596,12 +580,6 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -648,12 +626,6 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -752,12 +718,6 @@
       <c r="J6" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -804,12 +764,6 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -856,12 +810,6 @@
       <c r="J8" t="n">
         <v>0.0004976851851851852</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -908,12 +856,6 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -960,12 +902,6 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1012,12 +948,6 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1064,12 +994,6 @@
       <c r="J12" t="n">
         <v>0.0003356481481481481</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1116,12 +1040,6 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,12 +1086,6 @@
       <c r="J14" t="n">
         <v>3.472222222222222e-05</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1220,16 +1132,6 @@
       <c r="J15" t="n">
         <v>0.0001851851851851852</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>819</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Fila</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1276,16 +1178,6 @@
       <c r="J16" t="n">
         <v>0.0009027777777777777</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>748</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Operador</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1332,12 +1224,6 @@
       <c r="J17" t="n">
         <v>0.000150462962962963</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1384,12 +1270,6 @@
       <c r="J18" t="n">
         <v>0.0003472222222222222</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1436,12 +1316,6 @@
       <c r="J19" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1488,12 +1362,6 @@
       <c r="J20" t="n">
         <v>0.0002777777777777778</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1540,12 +1408,6 @@
       <c r="J21" t="n">
         <v>0.0005208333333333333</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1592,12 +1454,6 @@
       <c r="J22" t="n">
         <v>0.0001388888888888889</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1644,12 +1500,6 @@
       <c r="J23" t="n">
         <v>0.005416666666666667</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>735</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1696,12 +1546,6 @@
       <c r="J24" t="n">
         <v>0.000150462962962963</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1748,16 +1592,6 @@
       <c r="J25" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>819</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Fila</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1804,16 +1638,6 @@
       <c r="J26" t="n">
         <v>0.001458333333333333</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>748</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Operador</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1860,12 +1684,6 @@
       <c r="J27" t="n">
         <v>0.0001851851851851852</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1912,12 +1730,6 @@
       <c r="J28" t="n">
         <v>0.0002777777777777778</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1964,12 +1776,6 @@
       <c r="J29" t="n">
         <v>3.472222222222222e-05</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2016,12 +1822,6 @@
       <c r="J30" t="n">
         <v>0.0004861111111111111</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2068,12 +1868,6 @@
       <c r="J31" t="n">
         <v>0.0003009259259259259</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2120,12 +1914,6 @@
       <c r="J32" t="n">
         <v>0.0001273148148148148</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2172,12 +1960,6 @@
       <c r="J33" t="n">
         <v>0.0006481481481481481</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2224,12 +2006,6 @@
       <c r="J34" t="n">
         <v>3.472222222222222e-05</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2276,12 +2052,6 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2328,12 +2098,6 @@
       <c r="J36" t="n">
         <v>0.005462962962962963</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>735</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2380,12 +2144,6 @@
       <c r="J37" t="n">
         <v>8.101851851851852e-05</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2432,12 +2190,6 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2484,12 +2236,6 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2536,12 +2282,6 @@
       <c r="J40" t="n">
         <v>0.0001967592592592593</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2588,12 +2328,6 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2640,12 +2374,6 @@
       <c r="J42" t="n">
         <v>0.0003703703703703704</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2692,12 +2420,6 @@
       <c r="J43" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2744,12 +2466,6 @@
       <c r="J44" t="n">
         <v>0.0007638888888888889</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>757</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2796,12 +2512,6 @@
       <c r="J45" t="n">
         <v>0.0003356481481481481</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2848,12 +2558,6 @@
       <c r="J46" t="n">
         <v>0.0001273148148148148</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2900,12 +2604,6 @@
       <c r="J47" t="n">
         <v>0.0004166666666666667</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2952,12 +2650,6 @@
       <c r="J48" t="n">
         <v>9.259259259259259e-05</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3004,12 +2696,6 @@
       <c r="J49" t="n">
         <v>0.0001967592592592593</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3056,12 +2742,6 @@
       <c r="J50" t="n">
         <v>0.001342592592592592</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3108,12 +2788,6 @@
       <c r="J51" t="n">
         <v>0.0005324074074074074</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3160,12 +2834,6 @@
       <c r="J52" t="n">
         <v>0.0004282407407407408</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3212,12 +2880,6 @@
       <c r="J53" t="n">
         <v>0.0001388888888888889</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3264,12 +2926,6 @@
       <c r="J54" t="n">
         <v>0.0006481481481481481</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3316,12 +2972,6 @@
       <c r="J55" t="n">
         <v>0.0003009259259259259</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3368,12 +3018,6 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3420,12 +3064,6 @@
       <c r="J57" t="n">
         <v>0.0002083333333333333</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3472,12 +3110,6 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3524,12 +3156,6 @@
       <c r="J59" t="n">
         <v>1.157407407407407e-05</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3576,12 +3202,6 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3628,12 +3248,6 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3680,12 +3294,6 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3732,12 +3340,6 @@
       <c r="J63" t="n">
         <v>0.0005671296296296297</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3784,12 +3386,6 @@
       <c r="J64" t="n">
         <v>0.0006597222222222222</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3836,12 +3432,6 @@
       <c r="J65" t="n">
         <v>0.0003240740740740741</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3888,12 +3478,6 @@
       <c r="J66" t="n">
         <v>0.002268518518518519</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3940,12 +3524,6 @@
       <c r="J67" t="n">
         <v>0.0008912037037037037</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3992,12 +3570,6 @@
       <c r="J68" t="n">
         <v>0.0002430555555555555</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4044,12 +3616,6 @@
       <c r="J69" t="n">
         <v>0.0002199074074074074</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4096,12 +3662,6 @@
       <c r="J70" t="n">
         <v>2.314814814814815e-05</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4148,12 +3708,6 @@
       <c r="J71" t="n">
         <v>1.157407407407407e-05</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4200,12 +3754,6 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4252,12 +3800,6 @@
       <c r="J73" t="n">
         <v>9.259259259259259e-05</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4304,12 +3846,6 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4356,12 +3892,6 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4408,12 +3938,6 @@
       <c r="J76" t="n">
         <v>0.0004166666666666667</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4460,12 +3984,6 @@
       <c r="J77" t="n">
         <v>0.0002314814814814815</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4512,12 +4030,6 @@
       <c r="J78" t="n">
         <v>0.0004861111111111111</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4564,12 +4076,6 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4616,12 +4122,6 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4668,12 +4168,6 @@
       <c r="J81" t="n">
         <v>4.629629629629629e-05</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4720,12 +4214,6 @@
       <c r="J82" t="n">
         <v>6.944444444444444e-05</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4772,12 +4260,6 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4824,12 +4306,6 @@
       <c r="J84" t="n">
         <v>0</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4876,12 +4352,6 @@
       <c r="J85" t="n">
         <v>5.787037037037037e-05</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4928,12 +4398,6 @@
       <c r="J86" t="n">
         <v>0</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4980,12 +4444,6 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5032,12 +4490,6 @@
       <c r="J88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5084,12 +4536,6 @@
       <c r="J89" t="n">
         <v>0.0009143518518518518</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5136,12 +4582,6 @@
       <c r="J90" t="n">
         <v>0.0005324074074074074</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5188,12 +4628,6 @@
       <c r="J91" t="n">
         <v>0.0001273148148148148</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5240,12 +4674,6 @@
       <c r="J92" t="n">
         <v>0.005358796296296296</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5292,12 +4720,6 @@
       <c r="J93" t="n">
         <v>0.0009722222222222222</v>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5344,12 +4766,6 @@
       <c r="J94" t="n">
         <v>0.0003125</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5396,12 +4812,6 @@
       <c r="J95" t="n">
         <v>4.629629629629629e-05</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5448,12 +4858,6 @@
       <c r="J96" t="n">
         <v>0.0002430555555555555</v>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5500,12 +4904,6 @@
       <c r="J97" t="n">
         <v>0</v>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5552,12 +4950,6 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5604,12 +4996,6 @@
       <c r="J99" t="n">
         <v>0.0005902777777777778</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5656,12 +5042,6 @@
       <c r="J100" t="n">
         <v>0.0004976851851851852</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5708,12 +5088,6 @@
       <c r="J101" t="n">
         <v>0.0001157407407407407</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5760,12 +5134,6 @@
       <c r="J102" t="n">
         <v>0.001608796296296296</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5812,12 +5180,6 @@
       <c r="J103" t="n">
         <v>8.101851851851852e-05</v>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5864,12 +5226,6 @@
       <c r="J104" t="n">
         <v>0.005289351851851852</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5916,12 +5272,6 @@
       <c r="J105" t="n">
         <v>0.0002777777777777778</v>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5968,12 +5318,6 @@
       <c r="J106" t="n">
         <v>0.0004050925925925926</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6020,12 +5364,6 @@
       <c r="J107" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6072,12 +5410,6 @@
       <c r="J108" t="n">
         <v>0.004849537037037037</v>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>757</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6124,12 +5456,6 @@
       <c r="J109" t="n">
         <v>0.0002893518518518518</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6176,12 +5502,6 @@
       <c r="J110" t="n">
         <v>0</v>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6228,12 +5548,6 @@
       <c r="J111" t="n">
         <v>0</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6280,12 +5594,6 @@
       <c r="J112" t="n">
         <v>0.0001157407407407407</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6332,12 +5640,6 @@
       <c r="J113" t="n">
         <v>0</v>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6384,12 +5686,6 @@
       <c r="J114" t="n">
         <v>0.001793981481481481</v>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6436,12 +5732,6 @@
       <c r="J115" t="n">
         <v>0</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6488,12 +5778,6 @@
       <c r="J116" t="n">
         <v>3.472222222222222e-05</v>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6540,12 +5824,6 @@
       <c r="J117" t="n">
         <v>8.101851851851852e-05</v>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6592,12 +5870,6 @@
       <c r="J118" t="n">
         <v>8.101851851851852e-05</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6644,12 +5916,6 @@
       <c r="J119" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6696,12 +5962,6 @@
       <c r="J120" t="n">
         <v>0</v>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6748,12 +6008,6 @@
       <c r="J121" t="n">
         <v>0</v>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6800,12 +6054,6 @@
       <c r="J122" t="n">
         <v>0</v>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6852,12 +6100,6 @@
       <c r="J123" t="n">
         <v>0</v>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6904,12 +6146,6 @@
       <c r="J124" t="n">
         <v>0</v>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6956,12 +6192,6 @@
       <c r="J125" t="n">
         <v>0</v>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7008,12 +6238,6 @@
       <c r="J126" t="n">
         <v>2.314814814814815e-05</v>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7060,12 +6284,6 @@
       <c r="J127" t="n">
         <v>6.944444444444444e-05</v>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7112,12 +6330,6 @@
       <c r="J128" t="n">
         <v>0.0003009259259259259</v>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7164,12 +6376,6 @@
       <c r="J129" t="n">
         <v>6.944444444444444e-05</v>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7216,12 +6422,6 @@
       <c r="J130" t="n">
         <v>0</v>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7268,12 +6468,6 @@
       <c r="J131" t="n">
         <v>0.0001157407407407407</v>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7320,12 +6514,6 @@
       <c r="J132" t="n">
         <v>9.259259259259259e-05</v>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>808</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7372,12 +6560,6 @@
       <c r="J133" t="n">
         <v>0.001203703703703704</v>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7424,12 +6606,6 @@
       <c r="J134" t="n">
         <v>0</v>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7476,12 +6652,6 @@
       <c r="J135" t="n">
         <v>0</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7528,12 +6698,6 @@
       <c r="J136" t="n">
         <v>0.000462962962962963</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7580,12 +6744,6 @@
       <c r="J137" t="n">
         <v>0</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7632,12 +6790,6 @@
       <c r="J138" t="n">
         <v>0</v>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7684,12 +6836,6 @@
       <c r="J139" t="n">
         <v>3.472222222222222e-05</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7736,12 +6882,6 @@
       <c r="J140" t="n">
         <v>0.0001041666666666667</v>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7788,12 +6928,6 @@
       <c r="J141" t="n">
         <v>2.314814814814815e-05</v>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7840,12 +6974,6 @@
       <c r="J142" t="n">
         <v>9.259259259259259e-05</v>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7892,12 +7020,6 @@
       <c r="J143" t="n">
         <v>6.944444444444444e-05</v>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7944,12 +7066,6 @@
       <c r="J144" t="n">
         <v>2.314814814814815e-05</v>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7996,12 +7112,6 @@
       <c r="J145" t="n">
         <v>0</v>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8048,12 +7158,6 @@
       <c r="J146" t="n">
         <v>0</v>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8100,12 +7204,6 @@
       <c r="J147" t="n">
         <v>0</v>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8152,12 +7250,6 @@
       <c r="J148" t="n">
         <v>4.629629629629629e-05</v>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8204,12 +7296,6 @@
       <c r="J149" t="n">
         <v>0</v>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8256,12 +7342,6 @@
       <c r="J150" t="n">
         <v>0</v>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8308,12 +7388,6 @@
       <c r="J151" t="n">
         <v>0</v>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
